--- a/Abstraction_master.xlsx
+++ b/Abstraction_master.xlsx
@@ -2753,7 +2753,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2769,6 +2769,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
@@ -11856,8 +11859,8 @@
       <c r="X127" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="Y127" s="2" t="s">
-        <v>66</v>
+      <c r="Y127" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="Z127" s="2" t="s">
         <v>66</v>
@@ -12703,7 +12706,7 @@
       <c r="O135" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="P135" s="9" t="s">
+      <c r="P135" s="10" t="s">
         <v>90</v>
       </c>
       <c r="Q135" s="2" t="s">
@@ -13581,7 +13584,7 @@
       <c r="G150" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="H150" s="10" t="s">
+      <c r="H150" s="11" t="s">
         <v>499</v>
       </c>
       <c r="I150" s="2" t="s">
@@ -14321,7 +14324,7 @@
       <c r="G165" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="H165" s="11" t="s">
+      <c r="H165" s="12" t="s">
         <v>539</v>
       </c>
       <c r="I165" s="2" t="s">
@@ -14668,7 +14671,7 @@
       <c r="S171" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="T171" s="9" t="s">
+      <c r="T171" s="10" t="s">
         <v>157</v>
       </c>
       <c r="U171" s="2" t="s">
@@ -14714,7 +14717,7 @@
       <c r="P172" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Q172" s="9" t="s">
+      <c r="Q172" s="10" t="s">
         <v>560</v>
       </c>
       <c r="R172" s="2" t="s">
@@ -14922,7 +14925,7 @@
       <c r="Q175" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="R175" s="9" t="s">
+      <c r="R175" s="10" t="s">
         <v>66</v>
       </c>
       <c r="S175" s="2" t="s">
@@ -16089,7 +16092,7 @@
       <c r="Q188" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="R188" s="9" t="s">
+      <c r="R188" s="10" t="s">
         <v>66</v>
       </c>
       <c r="S188" s="2" t="s">
@@ -17083,7 +17086,7 @@
       <c r="S199" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="T199" s="9" t="s">
+      <c r="T199" s="10" t="s">
         <v>157</v>
       </c>
       <c r="U199" s="2" t="s">
@@ -21038,7 +21041,7 @@
       <c r="Z262" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AA262" s="12" t="s">
+      <c r="AA262" s="13" t="s">
         <v>137</v>
       </c>
       <c r="AC262" s="2" t="s">
@@ -21726,7 +21729,7 @@
       <c r="Z271" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AA271" s="12" t="s">
+      <c r="AA271" s="13" t="s">
         <v>331</v>
       </c>
       <c r="AC271" s="2" t="s">
@@ -21897,13 +21900,13 @@
       <c r="X274" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="Y274" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z274" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA274" s="9" t="s">
+      <c r="Y274" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z274" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA274" s="10" t="s">
         <v>137</v>
       </c>
       <c r="AC274" s="2" t="s">
@@ -22401,10 +22404,10 @@
       <c r="R283" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="S283" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="T283" s="12" t="s">
+      <c r="S283" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="T283" s="13" t="s">
         <v>104</v>
       </c>
       <c r="U283" s="2" t="s">
@@ -22416,7 +22419,7 @@
       <c r="W283" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="X283" s="12" t="s">
+      <c r="X283" s="13" t="s">
         <v>66</v>
       </c>
       <c r="Y283" s="2" t="s">
@@ -23112,7 +23115,7 @@
       <c r="I294" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="J294" s="9" t="s">
+      <c r="J294" s="10" t="s">
         <v>131</v>
       </c>
       <c r="K294" s="2"/>
